--- a/Design/DataTable/client_monster_info.xlsx
+++ b/Design/DataTable/client_monster_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DateTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDABCE95-14C1-4D19-866D-C98C60605E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2FBEE6-70B1-489D-A5EC-F36414387578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{634E5D1F-E6A6-48B1-B744-D317D5276317}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>AttackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,26 +184,6 @@
   </si>
   <si>
     <t>;아이콘 이미지 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3F3863-F070-4592-A50F-8035B6750A51}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -663,7 +643,7 @@
     <col min="16" max="16" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -707,13 +687,13 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -730,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>21</v>
@@ -763,31 +743,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +759,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -970,10 +928,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
